--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,11 +45,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +413,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="18.5703125" customWidth="1" min="1" max="1"/>
+    <col width="18.140625" bestFit="1" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -441,7 +445,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Amit</t>
+          <t>Firas Amara</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -449,16 +453,16 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2024-04-01 22:30:31</t>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>2024-06-06 03:58:45</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kishan_Pandey</t>
+          <t>Yosri Zayeni</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -466,16 +470,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2024-04-01 15:39:56</t>
-        </is>
+      <c r="C3" s="1" t="n">
+        <v>45427.93785879629</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mehul</t>
+          <t>Firas_Amara</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -485,14 +487,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-04-01 15:40:28</t>
+          <t>2024-06-06 03:36:59</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ruhani</t>
+          <t>Yosri_Zayeni</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -502,24 +504,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-04-01 15:21:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Koushtubh_Ojha</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2024-04-01 15:39:58</t>
+          <t>2024-06-06 03:33:08</t>
         </is>
       </c>
     </row>
